--- a/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
+++ b/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U56034\OWN_WS\BerldPokerEngine\TexasHoldemBonusSimulator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC0278-AE94-4D6B-8AA6-76EEBDD7101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFAE226-E034-4759-A836-E0637BF7F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD6B6ABC-476D-4D2B-8F01-A68FA1E46815}"/>
   </bookViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3F2A37-638D-40C7-9927-D8667CBDC363}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="I8" s="12">
         <f>SUM(G2:G170)</f>
-        <v>-12795429099760</v>
+        <v>-12793201867088</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I11" s="11">
         <f>I8/I5</f>
-        <v>-0.23001935169469898</v>
+        <v>-0.2299793134426566</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3306,15 +3306,15 @@
         <v>4</v>
       </c>
       <c r="E92" s="12">
-        <v>0</v>
+        <v>556808168</v>
       </c>
       <c r="F92" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.3272680552051505E-2</v>
       </c>
       <c r="G92" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2227232672</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="F162" s="11">
-        <f t="shared" ref="F162:F193" si="10">E162/$I$2</f>
+        <f t="shared" ref="F162:F170" si="10">E162/$I$2</f>
         <v>0</v>
       </c>
       <c r="G162" s="12">

--- a/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
+++ b/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U56034\OWN_WS\BerldPokerEngine\TexasHoldemBonusSimulator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFAE226-E034-4759-A836-E0637BF7F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E65152-9C78-4793-B130-B8510535B95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD6B6ABC-476D-4D2B-8F01-A68FA1E46815}"/>
   </bookViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3F2A37-638D-40C7-9927-D8667CBDC363}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="I8" s="12">
         <f>SUM(G2:G170)</f>
-        <v>-12793201867088</v>
+        <v>-12333191584992</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I11" s="11">
         <f>I8/I5</f>
-        <v>-0.2299793134426566</v>
+        <v>-0.2217098551825501</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1931,15 +1931,15 @@
         <v>6</v>
       </c>
       <c r="E37" s="12">
-        <v>0</v>
+        <v>45880979504</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0936685547540577</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>275285877024</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2206,15 +2206,15 @@
         <v>12</v>
       </c>
       <c r="E48" s="12">
-        <v>0</v>
+        <v>-11915842848</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.28403889296026208</v>
       </c>
       <c r="G48" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-142990114176</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2231,15 +2231,15 @@
         <v>4</v>
       </c>
       <c r="E49" s="12">
-        <v>0</v>
+        <v>-2511204938</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5.9859791681088098E-2</v>
       </c>
       <c r="G49" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-10044819752</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2556,15 +2556,15 @@
         <v>4</v>
       </c>
       <c r="E62" s="12">
-        <v>0</v>
+        <v>-232865288</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5.5508283766510279E-3</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-931461152</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3281,15 +3281,15 @@
         <v>12</v>
       </c>
       <c r="E91" s="12">
-        <v>0</v>
+        <v>-9144354544</v>
       </c>
       <c r="F91" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.21797470599822918</v>
       </c>
       <c r="G91" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-109732254528</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3756,15 +3756,15 @@
         <v>12</v>
       </c>
       <c r="E110" s="12">
-        <v>0</v>
+        <v>-1309546160</v>
       </c>
       <c r="F110" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.1215755889999315E-2</v>
       </c>
       <c r="G110" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-15714553920</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3781,15 +3781,15 @@
         <v>4</v>
       </c>
       <c r="E111" s="12">
-        <v>0</v>
+        <v>8290774934</v>
       </c>
       <c r="F111" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.19762786099778964</v>
       </c>
       <c r="G111" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33163099736</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -4281,15 +4281,15 @@
         <v>12</v>
       </c>
       <c r="E131" s="12">
-        <v>0</v>
+        <v>6578794496</v>
       </c>
       <c r="F131" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.15681924724028595</v>
       </c>
       <c r="G131" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>78945533952</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -4306,15 +4306,15 @@
         <v>4</v>
       </c>
       <c r="E132" s="12">
-        <v>0</v>
+        <v>16187294816</v>
       </c>
       <c r="F132" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.38585783298826776</v>
       </c>
       <c r="G132" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>64749179264</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -4856,15 +4856,15 @@
         <v>12</v>
       </c>
       <c r="E154" s="12">
-        <v>0</v>
+        <v>15552204674</v>
       </c>
       <c r="F154" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.370719138800644</v>
       </c>
       <c r="G154" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>186626456088</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -4881,15 +4881,15 @@
         <v>4</v>
       </c>
       <c r="E155" s="12">
-        <v>0</v>
+        <v>25163334890</v>
       </c>
       <c r="F155" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.59982041358858462</v>
       </c>
       <c r="G155" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>100653339560</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">

--- a/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
+++ b/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U56034\OWN_WS\BerldPokerEngine\TexasHoldemBonusSimulator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E65152-9C78-4793-B130-B8510535B95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4A392-7405-4DA6-BF14-7FA6120C3F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD6B6ABC-476D-4D2B-8F01-A68FA1E46815}"/>
+    <workbookView xWindow="-28800" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{AD6B6ABC-476D-4D2B-8F01-A68FA1E46815}"/>
   </bookViews>
   <sheets>
     <sheet name="Winnings" sheetId="1" r:id="rId1"/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3F2A37-638D-40C7-9927-D8667CBDC363}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="I8" s="12">
         <f>SUM(G2:G170)</f>
-        <v>-12333191584992</v>
+        <v>-12492725626008</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I11" s="11">
         <f>I8/I5</f>
-        <v>-0.2217098551825501</v>
+        <v>-0.22457774780276898</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2531,15 +2531,15 @@
         <v>12</v>
       </c>
       <c r="E61" s="12">
-        <v>0</v>
+        <v>-9648241998</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.22998591128487389</v>
       </c>
       <c r="G61" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-115778903976</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2906,15 +2906,15 @@
         <v>12</v>
       </c>
       <c r="E76" s="12">
-        <v>0</v>
+        <v>-6618582004</v>
       </c>
       <c r="F76" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.15776766523053029</v>
       </c>
       <c r="G76" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-79422984048</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2931,15 +2931,15 @@
         <v>4</v>
       </c>
       <c r="E77" s="12">
-        <v>0</v>
+        <v>2780829246</v>
       </c>
       <c r="F77" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.6286847738843246E-2</v>
       </c>
       <c r="G77" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11123316984</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3356,15 +3356,15 @@
         <v>4</v>
       </c>
       <c r="E94" s="12">
-        <v>0</v>
+        <v>6136132506</v>
       </c>
       <c r="F94" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14626747820480476</v>
       </c>
       <c r="G94" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>24544530024</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">

--- a/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
+++ b/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U56034\OWN_WS\BerldPokerEngine\TexasHoldemBonusSimulator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4A392-7405-4DA6-BF14-7FA6120C3F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10507D1C-593E-4E1C-8CBC-51D31D12557D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{AD6B6ABC-476D-4D2B-8F01-A68FA1E46815}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD6B6ABC-476D-4D2B-8F01-A68FA1E46815}"/>
   </bookViews>
   <sheets>
     <sheet name="Winnings" sheetId="1" r:id="rId1"/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3F2A37-638D-40C7-9927-D8667CBDC363}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="I8" s="12">
         <f>SUM(G2:G170)</f>
-        <v>-12492725626008</v>
+        <v>-11947326213400</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I11" s="11">
         <f>I8/I5</f>
-        <v>-0.22457774780276898</v>
+        <v>-0.2147732763524825</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3331,15 +3331,15 @@
         <v>12</v>
       </c>
       <c r="E93" s="12">
-        <v>0</v>
+        <v>-3281278936</v>
       </c>
       <c r="F93" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-7.8216106771809166E-2</v>
       </c>
       <c r="G93" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-39375347232</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3806,15 +3806,15 @@
         <v>12</v>
       </c>
       <c r="E112" s="12">
-        <v>0</v>
+        <v>834290640</v>
       </c>
       <c r="F112" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.9887052289589622E-2</v>
       </c>
       <c r="G112" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10011487680</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3831,15 +3831,15 @@
         <v>4</v>
       </c>
       <c r="E113" s="12">
-        <v>0</v>
+        <v>10321042356</v>
       </c>
       <c r="F113" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.24602350688824853</v>
       </c>
       <c r="G113" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41284169424</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4331,15 +4331,15 @@
         <v>12</v>
       </c>
       <c r="E133" s="12">
-        <v>0</v>
+        <v>9435360972</v>
       </c>
       <c r="F133" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.22491144934973401</v>
       </c>
       <c r="G133" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>113224331664</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -4356,15 +4356,15 @@
         <v>4</v>
       </c>
       <c r="E134" s="12">
-        <v>0</v>
+        <v>18924544432</v>
       </c>
       <c r="F134" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.45110586962337984</v>
       </c>
       <c r="G134" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>75698177728</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -4906,15 +4906,15 @@
         <v>12</v>
       </c>
       <c r="E156" s="12">
-        <v>0</v>
+        <v>19163347960</v>
       </c>
       <c r="F156" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.45679824829884297</v>
       </c>
       <c r="G156" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>229960175520</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -4931,15 +4931,15 @@
         <v>4</v>
       </c>
       <c r="E157" s="12">
-        <v>0</v>
+        <v>28649104456</v>
       </c>
       <c r="F157" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.6829109797592684</v>
       </c>
       <c r="G157" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>114596417824</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">

--- a/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
+++ b/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U56034\OWN_WS\BerldPokerEngine\TexasHoldemBonusSimulator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10507D1C-593E-4E1C-8CBC-51D31D12557D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1121B-050B-45E3-B380-39BC4886F9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD6B6ABC-476D-4D2B-8F01-A68FA1E46815}"/>
   </bookViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3F2A37-638D-40C7-9927-D8667CBDC363}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="I8" s="12">
         <f>SUM(G2:G170)</f>
-        <v>-11947326213400</v>
+        <v>-11632171982664</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I11" s="11">
         <f>I8/I5</f>
-        <v>-0.2147732763524825</v>
+        <v>-0.20910784916965391</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2256,15 +2256,15 @@
         <v>6</v>
       </c>
       <c r="E50" s="12">
-        <v>0</v>
+        <v>56762327328</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.3530481076123999</v>
       </c>
       <c r="G50" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>340573963968</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2581,15 +2581,15 @@
         <v>12</v>
       </c>
       <c r="E63" s="12">
-        <v>0</v>
+        <v>-3875346626</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-9.2376945510915381E-2</v>
       </c>
       <c r="G63" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-46504159512</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2606,15 +2606,15 @@
         <v>4</v>
       </c>
       <c r="E64" s="12">
-        <v>0</v>
+        <v>5271106570</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12564778622182482</v>
       </c>
       <c r="G64" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21084426280</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">

--- a/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
+++ b/TexasHoldemBonusSimulator/Assets/Texas_Holdem_Bonus_Solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U56034\OWN_WS\BerldPokerEngine\TexasHoldemBonusSimulator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1121B-050B-45E3-B380-39BC4886F9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F96309-49CD-4F05-9F63-EB786C966391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD6B6ABC-476D-4D2B-8F01-A68FA1E46815}"/>
   </bookViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3F2A37-638D-40C7-9927-D8667CBDC363}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,7 +988,7 @@
     <col min="4" max="4" width="15.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="18" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="22" style="12" customWidth="1"/>
+    <col min="7" max="7" width="28" style="12" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
   </cols>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>168</v>
-      </c>
-      <c r="B2" s="8">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1033,15 +1033,15 @@
         <v>6</v>
       </c>
       <c r="E2" s="12">
-        <v>-5627254224</v>
+        <v>116998334968</v>
       </c>
       <c r="F2" s="11">
-        <f t="shared" ref="F2:F33" si="0">E2/$I$2</f>
-        <v>-0.13413730615448602</v>
+        <f>E2/$I$2</f>
+        <v>2.7888986088871115</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G33" si="1">MAX(E2,-$I$2) * D2</f>
-        <v>-33763525344</v>
+        <f>MAX(E2,-$I$2) * D2</f>
+        <v>701990009808</v>
       </c>
       <c r="I2" s="12">
         <v>41951448000</v>
@@ -1049,52 +1049,52 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D3" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E3" s="12">
-        <v>-48492792304</v>
+        <v>50091030714</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.1559265440372881</v>
+        <f>E3/$I$2</f>
+        <v>1.1940238800338907</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" si="1"/>
-        <v>-503417376000</v>
+        <f>MAX(E3,-$I$2) * D3</f>
+        <v>200364122856</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D4" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" s="12">
-        <v>-37210305246</v>
+        <v>41922791054</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.88698500337819086</v>
+        <f>E4/$I$2</f>
+        <v>0.99931690210073321</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" si="1"/>
-        <v>-148841220984</v>
+        <f>MAX(E4,-$I$2) * D4</f>
+        <v>503073492648</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>179</v>
@@ -1102,27 +1102,27 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="12">
-        <v>3296727772</v>
+        <v>47171553598</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>7.8584361903312611E-2</v>
+        <f>E5/$I$2</f>
+        <v>1.1244320719990404</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>19780366632</v>
+        <f>MAX(E5,-$I$2) * D5</f>
+        <v>188686214392</v>
       </c>
       <c r="I5" s="12">
         <v>55627620048000</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>58</v>
@@ -1142,23 +1142,23 @@
         <v>12</v>
       </c>
       <c r="E6" s="12">
-        <v>-45794385890</v>
+        <v>38818148886</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.0916044158952511</v>
+        <f>E6/$I$2</f>
+        <v>0.92531130000566364</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" si="1"/>
-        <v>-503417376000</v>
+        <f>MAX(E6,-$I$2) * D6</f>
+        <v>465817786632</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>10</v>
@@ -1167,15 +1167,15 @@
         <v>4</v>
       </c>
       <c r="E7" s="12">
-        <v>-34652241464</v>
+        <v>44309560528</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.8260082337086434</v>
+        <f>E7/$I$2</f>
+        <v>1.0562105157371444</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" si="1"/>
-        <v>-138608965856</v>
+        <f>MAX(E7,-$I$2) * D7</f>
+        <v>177238242112</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>177</v>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>58</v>
@@ -1195,27 +1195,27 @@
         <v>12</v>
       </c>
       <c r="E8" s="12">
-        <v>-39855315910</v>
+        <v>35763335576</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.95003433278393634</v>
+        <f>E8/$I$2</f>
+        <v>0.85249347235880868</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" si="1"/>
-        <v>-478263790920</v>
+        <f>MAX(E8,-$I$2) * D8</f>
+        <v>429160026912</v>
       </c>
       <c r="I8" s="12">
         <f>SUM(G2:G170)</f>
-        <v>-11632171982664</v>
+        <v>-1133091156680</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -1224,40 +1224,40 @@
         <v>4</v>
       </c>
       <c r="E9" s="12">
-        <v>-29074217016</v>
+        <v>41544066312</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.69304442163712676</v>
+        <f>E9/$I$2</f>
+        <v>0.99028921032713813</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="1"/>
-        <v>-116296868064</v>
+        <f>MAX(E9,-$I$2) * D9</f>
+        <v>166176265248</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D10" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E10" s="12">
-        <v>13520479652</v>
+        <v>32803513406</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.32228874798314472</v>
+        <f>E10/$I$2</f>
+        <v>0.78193995606540212</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" si="1"/>
-        <v>81122877912</v>
+        <f>MAX(E10,-$I$2) * D10</f>
+        <v>393642160872</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>181</v>
@@ -1265,189 +1265,189 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11" s="12">
-        <v>-42789931346</v>
+        <v>34495677278</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.0199869941557203</v>
+        <f>E11/$I$2</f>
+        <v>0.82227620076427399</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="1"/>
-        <v>-503417376000</v>
+        <f>MAX(E11,-$I$2) * D11</f>
+        <v>137982709112</v>
       </c>
       <c r="I11" s="11">
         <f>I8/I5</f>
-        <v>-0.20910784916965391</v>
+        <v>-2.0369218666954968E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E12" s="12">
-        <v>-31798376854</v>
+        <v>25271860236</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.75798043619376376</v>
+        <f>E12/$I$2</f>
+        <v>0.60240734088606429</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" si="1"/>
-        <v>-127193507416</v>
+        <f>MAX(E12,-$I$2) * D12</f>
+        <v>303262322832</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E13" s="12">
-        <v>-36684678636</v>
+        <v>31766428312</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.87445560010228962</v>
+        <f>E13/$I$2</f>
+        <v>0.75721887625905071</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="1"/>
-        <v>-440216143632</v>
+        <f>MAX(E13,-$I$2) * D13</f>
+        <v>127065713248</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D14" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E14" s="12">
-        <v>-26061513252</v>
+        <v>22390148796</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.62123036258486242</v>
+        <f>E14/$I$2</f>
+        <v>0.53371575627139256</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="1"/>
-        <v>-104246053008</v>
+        <f>MAX(E14,-$I$2) * D14</f>
+        <v>268681785552</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D15" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E15" s="12">
-        <v>-30839614240</v>
+        <v>28649104456</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.73512633556772577</v>
+        <f>E15/$I$2</f>
+        <v>0.6829109797592684</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>-370075370880</v>
+        <f>MAX(E15,-$I$2) * D15</f>
+        <v>114596417824</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D16" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E16" s="12">
-        <v>-20564541776</v>
+        <v>19163347960</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.49019861664846465</v>
+        <f>E16/$I$2</f>
+        <v>0.45679824829884297</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" si="1"/>
-        <v>-82258167104</v>
+        <f>MAX(E16,-$I$2) * D16</f>
+        <v>229960175520</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="12">
-        <v>24728562420</v>
+        <v>25163334890</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="0"/>
-        <v>0.58945670766835034</v>
+        <f>E17/$I$2</f>
+        <v>0.59982041358858462</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" si="1"/>
-        <v>148371374520</v>
+        <f>MAX(E17,-$I$2) * D17</f>
+        <v>100653339560</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>58</v>
@@ -1456,23 +1456,23 @@
         <v>12</v>
       </c>
       <c r="E18" s="12">
-        <v>-43911556550</v>
+        <v>15552204674</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.0467232632828312</v>
+        <f>E18/$I$2</f>
+        <v>0.370719138800644</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="1"/>
-        <v>-503417376000</v>
+        <f>MAX(E18,-$I$2) * D18</f>
+        <v>186626456088</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>10</v>
@@ -1481,23 +1481,23 @@
         <v>4</v>
       </c>
       <c r="E19" s="12">
-        <v>-32843005494</v>
+        <v>26042074758</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.78288133210562838</v>
+        <f>E19/$I$2</f>
+        <v>0.62076700565854126</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" si="1"/>
-        <v>-131372021976</v>
+        <f>MAX(E19,-$I$2) * D19</f>
+        <v>104168299032</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>58</v>
@@ -1506,23 +1506,23 @@
         <v>12</v>
       </c>
       <c r="E20" s="12">
-        <v>-37740883376</v>
+        <v>16482434276</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.89963243642984625</v>
+        <f>E20/$I$2</f>
+        <v>0.39289309575202269</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" si="1"/>
-        <v>-452890600512</v>
+        <f>MAX(E20,-$I$2) * D20</f>
+        <v>197789211312</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>10</v>
@@ -1531,23 +1531,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="12">
-        <v>-27049301358</v>
+        <v>23222382496</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.64477634617045876</v>
+        <f>E21/$I$2</f>
+        <v>0.55355377711873022</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" si="1"/>
-        <v>-108197205432</v>
+        <f>MAX(E21,-$I$2) * D21</f>
+        <v>92889529984</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>58</v>
@@ -1556,23 +1556,23 @@
         <v>12</v>
       </c>
       <c r="E22" s="12">
-        <v>-31719317564</v>
+        <v>13493344510</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.75609589361492358</v>
+        <f>E22/$I$2</f>
+        <v>0.32164192544676884</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="1"/>
-        <v>-380631810768</v>
+        <f>MAX(E22,-$I$2) * D22</f>
+        <v>161920134120</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>10</v>
@@ -1581,23 +1581,23 @@
         <v>4</v>
       </c>
       <c r="E23" s="12">
-        <v>-21382964130</v>
+        <v>20582136608</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.50970741534356578</v>
+        <f>E23/$I$2</f>
+        <v>0.4906180260571697</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="1"/>
-        <v>-85531856520</v>
+        <f>MAX(E23,-$I$2) * D23</f>
+        <v>82328546432</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>58</v>
@@ -1606,23 +1606,23 @@
         <v>12</v>
       </c>
       <c r="E24" s="12">
-        <v>-25771532394</v>
+        <v>10673994932</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.61431806582695314</v>
+        <f>E24/$I$2</f>
+        <v>0.25443686549270006</v>
       </c>
       <c r="G24" s="12">
-        <f t="shared" si="1"/>
-        <v>-309258388728</v>
+        <f>MAX(E24,-$I$2) * D24</f>
+        <v>128087939184</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>10</v>
@@ -1631,73 +1631,73 @@
         <v>4</v>
       </c>
       <c r="E25" s="12">
-        <v>-15781759940</v>
+        <v>17830290924</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.37619106591982238</v>
+        <f>E25/$I$2</f>
+        <v>0.42502206178914254</v>
       </c>
       <c r="G25" s="12">
-        <f t="shared" si="1"/>
-        <v>-63127039760</v>
+        <f>MAX(E25,-$I$2) * D25</f>
+        <v>71321163696</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D26" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E26" s="12">
-        <v>35132859188</v>
+        <v>7734719874</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" si="0"/>
-        <v>0.83746475659195363</v>
+        <f>E26/$I$2</f>
+        <v>0.18437313234098618</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" si="1"/>
-        <v>210797155128</v>
+        <f>MAX(E26,-$I$2) * D26</f>
+        <v>92816638488</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D27" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E27" s="12">
-        <v>-43264561724</v>
+        <v>106375912528</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.0313007961965936</v>
+        <f>E27/$I$2</f>
+        <v>2.5356910809848565</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" si="1"/>
-        <v>-503417376000</v>
+        <f>MAX(E27,-$I$2) * D27</f>
+        <v>638255475168</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>10</v>
@@ -1706,23 +1706,23 @@
         <v>4</v>
       </c>
       <c r="E28" s="12">
-        <v>-32221901478</v>
+        <v>39287766090</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.76807602631499161</v>
+        <f>E28/$I$2</f>
+        <v>0.93650560261948523</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="1"/>
-        <v>-128887605912</v>
+        <f>MAX(E28,-$I$2) * D28</f>
+        <v>157151064360</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>58</v>
@@ -1731,23 +1731,23 @@
         <v>12</v>
       </c>
       <c r="E29" s="12">
-        <v>-37143812134</v>
+        <v>30852933864</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.88540000178301359</v>
+        <f>E29/$I$2</f>
+        <v>0.73544383650356959</v>
       </c>
       <c r="G29" s="12">
-        <f t="shared" si="1"/>
-        <v>-445725745608</v>
+        <f>MAX(E29,-$I$2) * D29</f>
+        <v>370235206368</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>10</v>
@@ -1756,23 +1756,23 @@
         <v>4</v>
       </c>
       <c r="E30" s="12">
-        <v>-26474790696</v>
+        <v>36518381106</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.63108168986205193</v>
+        <f>E30/$I$2</f>
+        <v>0.87049155266345035</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="1"/>
-        <v>-105899162784</v>
+        <f>MAX(E30,-$I$2) * D30</f>
+        <v>146073524424</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>58</v>
@@ -1781,23 +1781,23 @@
         <v>12</v>
       </c>
       <c r="E31" s="12">
-        <v>-31067602650</v>
+        <v>27929628336</v>
       </c>
       <c r="F31" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.74056091341590879</v>
+        <f>E31/$I$2</f>
+        <v>0.66576077030761849</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="1"/>
-        <v>-372811231800</v>
+        <f>MAX(E31,-$I$2) * D31</f>
+        <v>335155540032</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>10</v>
@@ -1806,23 +1806,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="12">
-        <v>-20759804624</v>
+        <v>33918610966</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.49485311267444215</v>
+        <f>E32/$I$2</f>
+        <v>0.80852062522371104</v>
       </c>
       <c r="G32" s="12">
-        <f t="shared" si="1"/>
-        <v>-83039218496</v>
+        <f>MAX(E32,-$I$2) * D32</f>
+        <v>135674443864</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>58</v>
@@ -1831,23 +1831,23 @@
         <v>12</v>
       </c>
       <c r="E33" s="12">
-        <v>-24981289594</v>
+        <v>25180427584</v>
       </c>
       <c r="F33" s="11">
-        <f t="shared" si="0"/>
-        <v>-0.59548098540007488</v>
+        <f>E33/$I$2</f>
+        <v>0.60022785349387697</v>
       </c>
       <c r="G33" s="12">
-        <f t="shared" si="1"/>
-        <v>-299775475128</v>
+        <f>MAX(E33,-$I$2) * D33</f>
+        <v>302165131008</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>10</v>
@@ -1856,23 +1856,23 @@
         <v>4</v>
       </c>
       <c r="E34" s="12">
-        <v>-15018172112</v>
+        <v>27106735676</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" ref="F34:F65" si="2">E34/$I$2</f>
-        <v>-0.35798936217886923</v>
+        <f>E34/$I$2</f>
+        <v>0.64614541257312497</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" ref="G34:G65" si="3">MAX(E34,-$I$2) * D34</f>
-        <v>-60072688448</v>
+        <f>MAX(E34,-$I$2) * D34</f>
+        <v>108426942704</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>58</v>
@@ -1881,23 +1881,23 @@
         <v>12</v>
       </c>
       <c r="E35" s="12">
-        <v>-19202279754</v>
+        <v>17963077776</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.45772626856646281</v>
+        <f>E35/$I$2</f>
+        <v>0.42818731253328846</v>
       </c>
       <c r="G35" s="12">
-        <f t="shared" si="3"/>
-        <v>-230427357048</v>
+        <f>MAX(E35,-$I$2) * D35</f>
+        <v>215556933312</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>10</v>
@@ -1906,348 +1906,348 @@
         <v>4</v>
       </c>
       <c r="E36" s="12">
-        <v>-9525995278</v>
+        <v>21250931964</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.22707190650487202</v>
+        <f>E36/$I$2</f>
+        <v>0.50656015410957922</v>
       </c>
       <c r="G36" s="12">
-        <f t="shared" si="3"/>
-        <v>-38103981112</v>
+        <f>MAX(E36,-$I$2) * D36</f>
+        <v>85003727856</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D37" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E37" s="12">
-        <v>45880979504</v>
+        <v>11864230134</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="2"/>
-        <v>1.0936685547540577</v>
+        <f>E37/$I$2</f>
+        <v>0.28280859659480645</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" si="3"/>
-        <v>275285877024</v>
+        <f>MAX(E37,-$I$2) * D37</f>
+        <v>142370761608</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D38" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38" s="12">
-        <v>-37588589550</v>
+        <v>18924544432</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.89600219639617684</v>
+        <f>E38/$I$2</f>
+        <v>0.45110586962337984</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="3"/>
-        <v>-451063074600</v>
+        <f>MAX(E38,-$I$2) * D38</f>
+        <v>75698177728</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D39" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E39" s="12">
-        <v>-26807844022</v>
+        <v>9435360972</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.63902070846279246</v>
+        <f>E39/$I$2</f>
+        <v>0.22491144934973401</v>
       </c>
       <c r="G39" s="12">
-        <f t="shared" si="3"/>
-        <v>-107231376088</v>
+        <f>MAX(E39,-$I$2) * D39</f>
+        <v>113224331664</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D40" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E40" s="12">
-        <v>-35684186716</v>
+        <v>16187294816</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.85060679469276002</v>
+        <f>E40/$I$2</f>
+        <v>0.38585783298826776</v>
       </c>
       <c r="G40" s="12">
-        <f t="shared" si="3"/>
-        <v>-428210240592</v>
+        <f>MAX(E40,-$I$2) * D40</f>
+        <v>64749179264</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D41" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E41" s="12">
-        <v>-25065055352</v>
+        <v>6578794496</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.59747771643067005</v>
+        <f>E41/$I$2</f>
+        <v>0.15681924724028595</v>
       </c>
       <c r="G41" s="12">
-        <f t="shared" si="3"/>
-        <v>-100260221408</v>
+        <f>MAX(E41,-$I$2) * D41</f>
+        <v>78945533952</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D42" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E42" s="12">
-        <v>-29651288772</v>
+        <v>13625524342</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.70680012694675043</v>
+        <f>E42/$I$2</f>
+        <v>0.32479270660693288</v>
       </c>
       <c r="G42" s="12">
-        <f t="shared" si="3"/>
-        <v>-355815465264</v>
+        <f>MAX(E42,-$I$2) * D42</f>
+        <v>54502097368</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D43" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E43" s="12">
-        <v>-19366227574</v>
+        <v>3874944936</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.46163430578129272</v>
+        <f>E43/$I$2</f>
+        <v>9.2367370394461717E-2</v>
       </c>
       <c r="G43" s="12">
-        <f t="shared" si="3"/>
-        <v>-77464910296</v>
+        <f>MAX(E43,-$I$2) * D43</f>
+        <v>46499339232</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D44" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E44" s="12">
-        <v>-23513236916</v>
+        <v>10946345994</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.56048689704345844</v>
+        <f>E44/$I$2</f>
+        <v>0.2609289194022576</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" si="3"/>
-        <v>-282158842992</v>
+        <f>MAX(E44,-$I$2) * D44</f>
+        <v>43785383976</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D45" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E45" s="12">
-        <v>-13551087590</v>
+        <v>1040333114</v>
       </c>
       <c r="F45" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.32301835183376748</v>
+        <f>E45/$I$2</f>
+        <v>2.4798503117222558E-2</v>
       </c>
       <c r="G45" s="12">
-        <f t="shared" si="3"/>
-        <v>-54204350360</v>
+        <f>MAX(E45,-$I$2) * D45</f>
+        <v>12483997368</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D46" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E46" s="12">
-        <v>-17662141742</v>
+        <v>8447998730</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.42101387637442217</v>
+        <f>E46/$I$2</f>
+        <v>0.2013756171181505</v>
       </c>
       <c r="G46" s="12">
-        <f t="shared" si="3"/>
-        <v>-211945700904</v>
+        <f>MAX(E46,-$I$2) * D46</f>
+        <v>33791994920</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D47" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E47" s="12">
-        <v>-7982373932</v>
+        <v>-1615102650</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.19027648180344098</v>
+        <f>E47/$I$2</f>
+        <v>-3.8499330225740959E-2</v>
       </c>
       <c r="G47" s="12">
-        <f t="shared" si="3"/>
-        <v>-31929495728</v>
+        <f>MAX(E47,-$I$2) * D47</f>
+        <v>-19381231800</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D48" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E48" s="12">
-        <v>-11915842848</v>
+        <v>5921101380</v>
       </c>
       <c r="F48" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.28403889296026208</v>
+        <f>E48/$I$2</f>
+        <v>0.14114176416508914</v>
       </c>
       <c r="G48" s="12">
-        <f t="shared" si="3"/>
-        <v>-142990114176</v>
+        <f>MAX(E48,-$I$2) * D48</f>
+        <v>23684405520</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D49" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E49" s="12">
-        <v>-2511204938</v>
+        <v>-4307091486</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" si="2"/>
-        <v>-5.9859791681088098E-2</v>
+        <f>E49/$I$2</f>
+        <v>-0.1026684820509652</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" si="3"/>
-        <v>-10044819752</v>
+        <f>MAX(E49,-$I$2) * D49</f>
+        <v>-51685097832</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>6</v>
@@ -2256,398 +2256,398 @@
         <v>6</v>
       </c>
       <c r="E50" s="12">
-        <v>56762327328</v>
+        <v>97152769760</v>
       </c>
       <c r="F50" s="11">
-        <f t="shared" si="2"/>
-        <v>1.3530481076123999</v>
+        <f>E50/$I$2</f>
+        <v>2.3158382938295716</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" si="3"/>
-        <v>340573963968</v>
+        <f>MAX(E50,-$I$2) * D50</f>
+        <v>582916618560</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D51" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E51" s="12">
-        <v>-32014486198</v>
+        <v>30946171338</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.76313185180163512</v>
+        <f>E51/$I$2</f>
+        <v>0.73766634558120614</v>
       </c>
       <c r="G51" s="12">
-        <f t="shared" si="3"/>
-        <v>-384173834376</v>
+        <f>MAX(E51,-$I$2) * D51</f>
+        <v>123784685352</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D52" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E52" s="12">
-        <v>-21401540384</v>
+        <v>22467312344</v>
       </c>
       <c r="F52" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.51015021898648172</v>
+        <f>E52/$I$2</f>
+        <v>0.53555510989751776</v>
       </c>
       <c r="G52" s="12">
-        <f t="shared" si="3"/>
-        <v>-85606161536</v>
+        <f>MAX(E52,-$I$2) * D52</f>
+        <v>269607748128</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D53" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E53" s="12">
-        <v>-29344921542</v>
+        <v>28401854160</v>
       </c>
       <c r="F53" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.69949722693719651</v>
+        <f>E53/$I$2</f>
+        <v>0.6770172548036959</v>
       </c>
       <c r="G53" s="12">
-        <f t="shared" si="3"/>
-        <v>-352139058504</v>
+        <f>MAX(E53,-$I$2) * D53</f>
+        <v>113607416640</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D54" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E54" s="12">
-        <v>-18915154996</v>
+        <v>19788233958</v>
       </c>
       <c r="F54" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.45088205289123751</v>
+        <f>E54/$I$2</f>
+        <v>0.47169370549498074</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" si="3"/>
-        <v>-75660619984</v>
+        <f>MAX(E54,-$I$2) * D54</f>
+        <v>237458807496</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D55" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E55" s="12">
-        <v>-27452782362</v>
+        <v>21747942638</v>
       </c>
       <c r="F55" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.65439415492881203</v>
+        <f>E55/$I$2</f>
+        <v>0.51840743704484293</v>
       </c>
       <c r="G55" s="12">
-        <f t="shared" si="3"/>
-        <v>-329433388344</v>
+        <f>MAX(E55,-$I$2) * D55</f>
+        <v>86991770552</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D56" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E56" s="12">
-        <v>-17163600856</v>
+        <v>12772734948</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.4091301176541034</v>
+        <f>E56/$I$2</f>
+        <v>0.30446469804808646</v>
       </c>
       <c r="G56" s="12">
-        <f t="shared" si="3"/>
-        <v>-68654403424</v>
+        <f>MAX(E56,-$I$2) * D56</f>
+        <v>153272819376</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D57" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E57" s="12">
-        <v>-21336205092</v>
+        <v>15997484636</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.50859281643866028</v>
+        <f>E57/$I$2</f>
+        <v>0.38133331264274833</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="3"/>
-        <v>-256034461104</v>
+        <f>MAX(E57,-$I$2) * D57</f>
+        <v>63989938544</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D58" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E58" s="12">
-        <v>-11361828278</v>
+        <v>6772623706</v>
       </c>
       <c r="F58" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.27083280362575329</v>
+        <f>E58/$I$2</f>
+        <v>0.16143956952332134</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="3"/>
-        <v>-45447313112</v>
+        <f>MAX(E58,-$I$2) * D58</f>
+        <v>81271484472</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D59" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E59" s="12">
-        <v>-15454505184</v>
+        <v>10321042356</v>
       </c>
       <c r="F59" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.36839026829300386</v>
+        <f>E59/$I$2</f>
+        <v>0.24602350688824853</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="3"/>
-        <v>-185454062208</v>
+        <f>MAX(E59,-$I$2) * D59</f>
+        <v>41284169424</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D60" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E60" s="12">
-        <v>-5766812626</v>
+        <v>834290640</v>
       </c>
       <c r="F60" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.13746397087414003</v>
+        <f>E60/$I$2</f>
+        <v>1.9887052289589622E-2</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="3"/>
-        <v>-23067250504</v>
+        <f>MAX(E60,-$I$2) * D60</f>
+        <v>10011487680</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D61" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E61" s="12">
-        <v>-9648241998</v>
+        <v>8290774934</v>
       </c>
       <c r="F61" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.22998591128487389</v>
+        <f>E61/$I$2</f>
+        <v>0.19762786099778964</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="3"/>
-        <v>-115778903976</v>
+        <f>MAX(E61,-$I$2) * D61</f>
+        <v>33163099736</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D62" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E62" s="12">
-        <v>-232865288</v>
+        <v>-1309546160</v>
       </c>
       <c r="F62" s="11">
-        <f t="shared" si="2"/>
-        <v>-5.5508283766510279E-3</v>
+        <f>E62/$I$2</f>
+        <v>-3.1215755889999315E-2</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="3"/>
-        <v>-931461152</v>
+        <f>MAX(E62,-$I$2) * D62</f>
+        <v>-15714553920</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D63" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E63" s="12">
-        <v>-3875346626</v>
+        <v>5736668098</v>
       </c>
       <c r="F63" s="11">
-        <f t="shared" si="2"/>
-        <v>-9.2376945510915381E-2</v>
+        <f>E63/$I$2</f>
+        <v>0.13674541336451604</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="3"/>
-        <v>-46504159512</v>
+        <f>MAX(E63,-$I$2) * D63</f>
+        <v>22946672392</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D64" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E64" s="12">
-        <v>5271106570</v>
+        <v>-4012311688</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="2"/>
-        <v>0.12564778622182482</v>
+        <f>E64/$I$2</f>
+        <v>-9.5641792578887858E-2</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="3"/>
-        <v>21084426280</v>
+        <f>MAX(E64,-$I$2) * D64</f>
+        <v>-48147740256</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D65" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E65" s="12">
-        <v>0</v>
+        <v>3098052592</v>
       </c>
       <c r="F65" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>E65/$I$2</f>
+        <v>7.3848525848261543E-2</v>
       </c>
       <c r="G65" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>MAX(E65,-$I$2) * D65</f>
+        <v>12392210368</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>58</v>
@@ -2656,23 +2656,23 @@
         <v>12</v>
       </c>
       <c r="E66" s="12">
-        <v>-25757323090</v>
+        <v>-6821794494</v>
       </c>
       <c r="F66" s="11">
-        <f t="shared" ref="F66:F97" si="4">E66/$I$2</f>
-        <v>-0.61397935751824351</v>
+        <f>E66/$I$2</f>
+        <v>-0.16261165750464679</v>
       </c>
       <c r="G66" s="12">
-        <f t="shared" ref="G66:G97" si="5">MAX(E66,-$I$2) * D66</f>
-        <v>-309087877080</v>
+        <f>MAX(E66,-$I$2) * D66</f>
+        <v>-81861533928</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>10</v>
@@ -2681,23 +2681,23 @@
         <v>4</v>
       </c>
       <c r="E67" s="12">
-        <v>-15295290442</v>
+        <v>624630940</v>
       </c>
       <c r="F67" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.36459505383461377</v>
+        <f>E67/$I$2</f>
+        <v>1.4889377358321458E-2</v>
       </c>
       <c r="G67" s="12">
-        <f t="shared" si="5"/>
-        <v>-61181161768</v>
+        <f>MAX(E67,-$I$2) * D67</f>
+        <v>2498523760</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>58</v>
@@ -2706,23 +2706,23 @@
         <v>12</v>
       </c>
       <c r="E68" s="12">
-        <v>-23071093512</v>
+        <v>-9462688564</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.54994748958367301</v>
+        <f>E68/$I$2</f>
+        <v>-0.22556285933205453</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" si="5"/>
-        <v>-276853122144</v>
+        <f>MAX(E68,-$I$2) * D68</f>
+        <v>-113552262768</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>10</v>
@@ -2731,23 +2731,23 @@
         <v>4</v>
       </c>
       <c r="E69" s="12">
-        <v>-12791734694</v>
+        <v>-1885570698</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.30491759650346278</v>
+        <f>E69/$I$2</f>
+        <v>-4.4946498580930985E-2</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="5"/>
-        <v>-51166938776</v>
+        <f>MAX(E69,-$I$2) * D69</f>
+        <v>-7542282792</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>58</v>
@@ -2756,323 +2756,323 @@
         <v>12</v>
       </c>
       <c r="E70" s="12">
-        <v>-20431859168</v>
+        <v>-12152898950</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.48703585077683137</v>
+        <f>E70/$I$2</f>
+        <v>-0.2896896181032893</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="5"/>
-        <v>-245182310016</v>
+        <f>MAX(E70,-$I$2) * D70</f>
+        <v>-145834787400</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D71" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E71" s="12">
-        <v>-10324570300</v>
+        <v>87989598584</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.24610760276975421</v>
+        <f>E71/$I$2</f>
+        <v>2.0974150542789367</v>
       </c>
       <c r="G71" s="12">
-        <f t="shared" si="5"/>
-        <v>-41298281200</v>
+        <f>MAX(E71,-$I$2) * D71</f>
+        <v>527937591504</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D72" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E72" s="12">
-        <v>-18354037888</v>
+        <v>24102511142</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.43750665979395992</v>
+        <f>E72/$I$2</f>
+        <v>0.57453347360024376</v>
       </c>
       <c r="G72" s="12">
-        <f t="shared" si="5"/>
-        <v>-220248454656</v>
+        <f>MAX(E72,-$I$2) * D72</f>
+        <v>96410044568</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D73" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E73" s="12">
-        <v>-8389181672</v>
+        <v>15533754642</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.1999735902322132</v>
+        <f>E73/$I$2</f>
+        <v>0.37027934392157336</v>
       </c>
       <c r="G73" s="12">
-        <f t="shared" si="5"/>
-        <v>-33556726688</v>
+        <f>MAX(E73,-$I$2) * D73</f>
+        <v>186405055704</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D74" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E74" s="12">
-        <v>-12470398770</v>
+        <v>17462999558</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.2972578865454179</v>
+        <f>E74/$I$2</f>
+        <v>0.41626690830790869</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="5"/>
-        <v>-149644785240</v>
+        <f>MAX(E74,-$I$2) * D74</f>
+        <v>69851998232</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D75" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E75" s="12">
-        <v>-2791542260</v>
+        <v>8572375032</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="4"/>
-        <v>-6.6542214704960842E-2</v>
+        <f>E75/$I$2</f>
+        <v>0.20434038491353146</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="5"/>
-        <v>-11166169040</v>
+        <f>MAX(E75,-$I$2) * D75</f>
+        <v>102868500384</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D76" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E76" s="12">
-        <v>-6618582004</v>
+        <v>11779751758</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.15776766523053029</v>
+        <f>E76/$I$2</f>
+        <v>0.28079487883231108</v>
       </c>
       <c r="G76" s="12">
-        <f t="shared" si="5"/>
-        <v>-79422984048</v>
+        <f>MAX(E76,-$I$2) * D76</f>
+        <v>47119007032</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D77" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E77" s="12">
-        <v>2780829246</v>
+        <v>2630732060</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="4"/>
-        <v>6.6286847738843246E-2</v>
+        <f>E77/$I$2</f>
+        <v>6.2708969187428285E-2</v>
       </c>
       <c r="G77" s="12">
-        <f t="shared" si="5"/>
-        <v>11123316984</v>
+        <f>MAX(E77,-$I$2) * D77</f>
+        <v>31568784720</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D78" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E78" s="12">
-        <v>0</v>
+        <v>6136132506</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E78/$I$2</f>
+        <v>0.14626747820480476</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(E78,-$I$2) * D78</f>
+        <v>24544530024</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D79" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E79" s="12">
-        <v>0</v>
+        <v>-3281278936</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E79/$I$2</f>
+        <v>-7.8216106771809166E-2</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(E79,-$I$2) * D79</f>
+        <v>-39375347232</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D80" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E80" s="12">
-        <v>0</v>
+        <v>556808168</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E80/$I$2</f>
+        <v>1.3272680552051505E-2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(E80,-$I$2) * D80</f>
+        <v>2227232672</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D81" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E81" s="12">
-        <v>0</v>
+        <v>-9144354544</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E81/$I$2</f>
+        <v>-0.21797470599822918</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(E81,-$I$2) * D81</f>
+        <v>-109732254528</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D82" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E82" s="12">
-        <v>0</v>
+        <v>-1316149312</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E82/$I$2</f>
+        <v>-3.1373155748998224E-2</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(E82,-$I$2) * D82</f>
+        <v>-5264597248</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>58</v>
@@ -3081,23 +3081,23 @@
         <v>12</v>
       </c>
       <c r="E83" s="12">
-        <v>-19273074882</v>
+        <v>-11132421310</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.45941381765892803</v>
+        <f>E83/$I$2</f>
+        <v>-0.26536441149778667</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="5"/>
-        <v>-231276898584</v>
+        <f>MAX(E83,-$I$2) * D83</f>
+        <v>-133589055720</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>10</v>
@@ -3106,23 +3106,23 @@
         <v>4</v>
       </c>
       <c r="E84" s="12">
-        <v>-8923440152</v>
+        <v>-3944476236</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.21270875207930845</v>
+        <f>E84/$I$2</f>
+        <v>-9.4024793518450181E-2</v>
       </c>
       <c r="G84" s="12">
-        <f t="shared" si="5"/>
-        <v>-35693760608</v>
+        <f>MAX(E84,-$I$2) * D84</f>
+        <v>-15777904944</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>58</v>
@@ -3131,15 +3131,15 @@
         <v>12</v>
       </c>
       <c r="E85" s="12">
-        <v>-16579483522</v>
+        <v>-13937654024</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.39520646634175771</v>
+        <f>E85/$I$2</f>
+        <v>-0.33223296664277235</v>
       </c>
       <c r="G85" s="12">
-        <f t="shared" si="5"/>
-        <v>-198953802264</v>
+        <f>MAX(E85,-$I$2) * D85</f>
+        <v>-167251848288</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3159,20 +3159,20 @@
         <v>-6413053874</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="4"/>
+        <f>E86/$I$2</f>
         <v>-0.15286847486170202</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="5"/>
+        <f>MAX(E86,-$I$2) * D86</f>
         <v>-25652215496</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>58</v>
@@ -3181,23 +3181,23 @@
         <v>12</v>
       </c>
       <c r="E87" s="12">
-        <v>-13937654024</v>
+        <v>-16579483522</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.33223296664277235</v>
+        <f>E87/$I$2</f>
+        <v>-0.39520646634175771</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="5"/>
-        <v>-167251848288</v>
+        <f>MAX(E87,-$I$2) * D87</f>
+        <v>-198953802264</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>10</v>
@@ -3206,23 +3206,23 @@
         <v>4</v>
       </c>
       <c r="E88" s="12">
-        <v>-3944476236</v>
+        <v>-8923440152</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="4"/>
-        <v>-9.4024793518450181E-2</v>
+        <f>E88/$I$2</f>
+        <v>-0.21270875207930845</v>
       </c>
       <c r="G88" s="12">
-        <f t="shared" si="5"/>
-        <v>-15777904944</v>
+        <f>MAX(E88,-$I$2) * D88</f>
+        <v>-35693760608</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>58</v>
@@ -3231,323 +3231,323 @@
         <v>12</v>
       </c>
       <c r="E89" s="12">
-        <v>-11132421310</v>
+        <v>-19273074882</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.26536441149778667</v>
+        <f>E89/$I$2</f>
+        <v>-0.45941381765892803</v>
       </c>
       <c r="G89" s="12">
-        <f t="shared" si="5"/>
-        <v>-133589055720</v>
+        <f>MAX(E89,-$I$2) * D89</f>
+        <v>-231276898584</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D90" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E90" s="12">
-        <v>-1316149312</v>
+        <v>78826330840</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="4"/>
-        <v>-3.1373155748998224E-2</v>
+        <f>E90/$I$2</f>
+        <v>1.8789895128292116</v>
       </c>
       <c r="G90" s="12">
-        <f t="shared" si="5"/>
-        <v>-5264597248</v>
+        <f>MAX(E90,-$I$2) * D90</f>
+        <v>472957985040</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D91" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E91" s="12">
-        <v>-9144354544</v>
+        <v>14161565074</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.21797470599822918</v>
+        <f>E91/$I$2</f>
+        <v>0.3375703521365937</v>
       </c>
       <c r="G91" s="12">
-        <f t="shared" si="5"/>
-        <v>-109732254528</v>
+        <f>MAX(E91,-$I$2) * D91</f>
+        <v>56646260296</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D92" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E92" s="12">
-        <v>556808168</v>
+        <v>5328945662</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="4"/>
-        <v>1.3272680552051505E-2</v>
+        <f>E92/$I$2</f>
+        <v>0.12702650125449783</v>
       </c>
       <c r="G92" s="12">
-        <f t="shared" si="5"/>
-        <v>2227232672</v>
+        <f>MAX(E92,-$I$2) * D92</f>
+        <v>63947347944</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D93" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E93" s="12">
-        <v>-3281278936</v>
+        <v>8430359404</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="4"/>
-        <v>-7.8216106771809166E-2</v>
+        <f>E93/$I$2</f>
+        <v>0.20095514710243137</v>
       </c>
       <c r="G93" s="12">
-        <f t="shared" si="5"/>
-        <v>-39375347232</v>
+        <f>MAX(E93,-$I$2) * D93</f>
+        <v>33721437616</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D94" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E94" s="12">
-        <v>6136132506</v>
+        <v>-687272020</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="4"/>
-        <v>0.14626747820480476</v>
+        <f>E94/$I$2</f>
+        <v>-1.6382557760580754E-2</v>
       </c>
       <c r="G94" s="12">
-        <f t="shared" si="5"/>
-        <v>24544530024</v>
+        <f>MAX(E94,-$I$2) * D94</f>
+        <v>-8247264240</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D95" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E95" s="12">
-        <v>0</v>
+        <v>2780829246</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E95/$I$2</f>
+        <v>6.6286847738843246E-2</v>
       </c>
       <c r="G95" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(E95,-$I$2) * D95</f>
+        <v>11123316984</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D96" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E96" s="12">
-        <v>0</v>
+        <v>-6618582004</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E96/$I$2</f>
+        <v>-0.15776766523053029</v>
       </c>
       <c r="G96" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(E96,-$I$2) * D96</f>
+        <v>-79422984048</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D97" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E97" s="12">
-        <v>0</v>
+        <v>-2791542260</v>
       </c>
       <c r="F97" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>E97/$I$2</f>
+        <v>-6.6542214704960842E-2</v>
       </c>
       <c r="G97" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>MAX(E97,-$I$2) * D97</f>
+        <v>-11166169040</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D98" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E98" s="12">
-        <v>0</v>
+        <v>-12470398770</v>
       </c>
       <c r="F98" s="11">
-        <f t="shared" ref="F98:F129" si="6">E98/$I$2</f>
-        <v>0</v>
+        <f>E98/$I$2</f>
+        <v>-0.2972578865454179</v>
       </c>
       <c r="G98" s="12">
-        <f t="shared" ref="G98:G129" si="7">MAX(E98,-$I$2) * D98</f>
-        <v>0</v>
+        <f>MAX(E98,-$I$2) * D98</f>
+        <v>-149644785240</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D99" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E99" s="12">
-        <v>0</v>
+        <v>-8389181672</v>
       </c>
       <c r="F99" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E99/$I$2</f>
+        <v>-0.1999735902322132</v>
       </c>
       <c r="G99" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E99,-$I$2) * D99</f>
+        <v>-33556726688</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D100" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E100" s="12">
-        <v>0</v>
+        <v>-18354037888</v>
       </c>
       <c r="F100" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E100/$I$2</f>
+        <v>-0.43750665979395992</v>
       </c>
       <c r="G100" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E100,-$I$2) * D100</f>
+        <v>-220248454656</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D101" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E101" s="12">
-        <v>0</v>
+        <v>-10324570300</v>
       </c>
       <c r="F101" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E101/$I$2</f>
+        <v>-0.24610760276975421</v>
       </c>
       <c r="G101" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E101,-$I$2) * D101</f>
+        <v>-41298281200</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>58</v>
@@ -3556,23 +3556,23 @@
         <v>12</v>
       </c>
       <c r="E102" s="12">
-        <v>-12152898950</v>
+        <v>-20431859168</v>
       </c>
       <c r="F102" s="11">
-        <f t="shared" si="6"/>
-        <v>-0.2896896181032893</v>
+        <f>E102/$I$2</f>
+        <v>-0.48703585077683137</v>
       </c>
       <c r="G102" s="12">
-        <f t="shared" si="7"/>
-        <v>-145834787400</v>
+        <f>MAX(E102,-$I$2) * D102</f>
+        <v>-245182310016</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>10</v>
@@ -3581,23 +3581,23 @@
         <v>4</v>
       </c>
       <c r="E103" s="12">
-        <v>-1885570698</v>
+        <v>-12791734694</v>
       </c>
       <c r="F103" s="11">
-        <f t="shared" si="6"/>
-        <v>-4.4946498580930985E-2</v>
+        <f>E103/$I$2</f>
+        <v>-0.30491759650346278</v>
       </c>
       <c r="G103" s="12">
-        <f t="shared" si="7"/>
-        <v>-7542282792</v>
+        <f>MAX(E103,-$I$2) * D103</f>
+        <v>-51166938776</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>58</v>
@@ -3606,23 +3606,23 @@
         <v>12</v>
       </c>
       <c r="E104" s="12">
-        <v>-9462688564</v>
+        <v>-23071093512</v>
       </c>
       <c r="F104" s="11">
-        <f t="shared" si="6"/>
-        <v>-0.22556285933205453</v>
+        <f>E104/$I$2</f>
+        <v>-0.54994748958367301</v>
       </c>
       <c r="G104" s="12">
-        <f t="shared" si="7"/>
-        <v>-113552262768</v>
+        <f>MAX(E104,-$I$2) * D104</f>
+        <v>-276853122144</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>10</v>
@@ -3631,23 +3631,23 @@
         <v>4</v>
       </c>
       <c r="E105" s="12">
-        <v>624630940</v>
+        <v>-15295290442</v>
       </c>
       <c r="F105" s="11">
-        <f t="shared" si="6"/>
-        <v>1.4889377358321458E-2</v>
+        <f>E105/$I$2</f>
+        <v>-0.36459505383461377</v>
       </c>
       <c r="G105" s="12">
-        <f t="shared" si="7"/>
-        <v>2498523760</v>
+        <f>MAX(E105,-$I$2) * D105</f>
+        <v>-61181161768</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>58</v>
@@ -3656,398 +3656,398 @@
         <v>12</v>
       </c>
       <c r="E106" s="12">
-        <v>-6821794494</v>
+        <v>-25757323090</v>
       </c>
       <c r="F106" s="11">
-        <f t="shared" si="6"/>
-        <v>-0.16261165750464679</v>
+        <f>E106/$I$2</f>
+        <v>-0.61397935751824351</v>
       </c>
       <c r="G106" s="12">
-        <f t="shared" si="7"/>
-        <v>-81861533928</v>
+        <f>MAX(E106,-$I$2) * D106</f>
+        <v>-309087877080</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D107" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E107" s="12">
-        <v>3098052592</v>
+        <v>67630530856</v>
       </c>
       <c r="F107" s="11">
-        <f t="shared" si="6"/>
-        <v>7.3848525848261543E-2</v>
+        <f>E107/$I$2</f>
+        <v>1.6121143388423684</v>
       </c>
       <c r="G107" s="12">
-        <f t="shared" si="7"/>
-        <v>12392210368</v>
+        <f>MAX(E107,-$I$2) * D107</f>
+        <v>405783185136</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D108" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E108" s="12">
-        <v>-4012311688</v>
+        <v>5271106570</v>
       </c>
       <c r="F108" s="11">
-        <f t="shared" si="6"/>
-        <v>-9.5641792578887858E-2</v>
+        <f>E108/$I$2</f>
+        <v>0.12564778622182482</v>
       </c>
       <c r="G108" s="12">
-        <f t="shared" si="7"/>
-        <v>-48147740256</v>
+        <f>MAX(E108,-$I$2) * D108</f>
+        <v>21084426280</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D109" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E109" s="12">
-        <v>5736668098</v>
+        <v>-3875346626</v>
       </c>
       <c r="F109" s="11">
-        <f t="shared" si="6"/>
-        <v>0.13674541336451604</v>
+        <f>E109/$I$2</f>
+        <v>-9.2376945510915381E-2</v>
       </c>
       <c r="G109" s="12">
-        <f t="shared" si="7"/>
-        <v>22946672392</v>
+        <f>MAX(E109,-$I$2) * D109</f>
+        <v>-46504159512</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D110" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E110" s="12">
-        <v>-1309546160</v>
+        <v>-232865288</v>
       </c>
       <c r="F110" s="11">
-        <f t="shared" si="6"/>
-        <v>-3.1215755889999315E-2</v>
+        <f>E110/$I$2</f>
+        <v>-5.5508283766510279E-3</v>
       </c>
       <c r="G110" s="12">
-        <f t="shared" si="7"/>
-        <v>-15714553920</v>
+        <f>MAX(E110,-$I$2) * D110</f>
+        <v>-931461152</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D111" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E111" s="12">
-        <v>8290774934</v>
+        <v>-9648241998</v>
       </c>
       <c r="F111" s="11">
-        <f t="shared" si="6"/>
-        <v>0.19762786099778964</v>
+        <f>E111/$I$2</f>
+        <v>-0.22998591128487389</v>
       </c>
       <c r="G111" s="12">
-        <f t="shared" si="7"/>
-        <v>33163099736</v>
+        <f>MAX(E111,-$I$2) * D111</f>
+        <v>-115778903976</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D112" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E112" s="12">
-        <v>834290640</v>
+        <v>-5766812626</v>
       </c>
       <c r="F112" s="11">
-        <f t="shared" si="6"/>
-        <v>1.9887052289589622E-2</v>
+        <f>E112/$I$2</f>
+        <v>-0.13746397087414003</v>
       </c>
       <c r="G112" s="12">
-        <f t="shared" si="7"/>
-        <v>10011487680</v>
+        <f>MAX(E112,-$I$2) * D112</f>
+        <v>-23067250504</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D113" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E113" s="12">
-        <v>10321042356</v>
+        <v>-15454505184</v>
       </c>
       <c r="F113" s="11">
-        <f t="shared" si="6"/>
-        <v>0.24602350688824853</v>
+        <f>E113/$I$2</f>
+        <v>-0.36839026829300386</v>
       </c>
       <c r="G113" s="12">
-        <f t="shared" si="7"/>
-        <v>41284169424</v>
+        <f>MAX(E113,-$I$2) * D113</f>
+        <v>-185454062208</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D114" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E114" s="12">
-        <v>0</v>
+        <v>-11361828278</v>
       </c>
       <c r="F114" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E114/$I$2</f>
+        <v>-0.27083280362575329</v>
       </c>
       <c r="G114" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E114,-$I$2) * D114</f>
+        <v>-45447313112</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D115" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E115" s="12">
-        <v>0</v>
+        <v>-21336205092</v>
       </c>
       <c r="F115" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E115/$I$2</f>
+        <v>-0.50859281643866028</v>
       </c>
       <c r="G115" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E115,-$I$2) * D115</f>
+        <v>-256034461104</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D116" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E116" s="12">
-        <v>0</v>
+        <v>-17163600856</v>
       </c>
       <c r="F116" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E116/$I$2</f>
+        <v>-0.4091301176541034</v>
       </c>
       <c r="G116" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E116,-$I$2) * D116</f>
+        <v>-68654403424</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D117" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E117" s="12">
-        <v>0</v>
+        <v>-27452782362</v>
       </c>
       <c r="F117" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E117/$I$2</f>
+        <v>-0.65439415492881203</v>
       </c>
       <c r="G117" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E117,-$I$2) * D117</f>
+        <v>-329433388344</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D118" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E118" s="12">
-        <v>0</v>
+        <v>-18915154996</v>
       </c>
       <c r="F118" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E118/$I$2</f>
+        <v>-0.45088205289123751</v>
       </c>
       <c r="G118" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E118,-$I$2) * D118</f>
+        <v>-75660619984</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D119" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E119" s="12">
-        <v>0</v>
+        <v>-29344921542</v>
       </c>
       <c r="F119" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E119/$I$2</f>
+        <v>-0.69949722693719651</v>
       </c>
       <c r="G119" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E119,-$I$2) * D119</f>
+        <v>-352139058504</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D120" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E120" s="12">
-        <v>0</v>
+        <v>-21401540384</v>
       </c>
       <c r="F120" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E120/$I$2</f>
+        <v>-0.51015021898648172</v>
       </c>
       <c r="G120" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E120,-$I$2) * D120</f>
+        <v>-85606161536</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D121" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E121" s="12">
-        <v>0</v>
+        <v>-32014486198</v>
       </c>
       <c r="F121" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E121/$I$2</f>
+        <v>-0.76313185180163512</v>
       </c>
       <c r="G121" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E121,-$I$2) * D121</f>
+        <v>-384173834376</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>6</v>
@@ -4056,348 +4056,348 @@
         <v>6</v>
       </c>
       <c r="E122" s="12">
-        <v>0</v>
+        <v>56762327328</v>
       </c>
       <c r="F122" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E122/$I$2</f>
+        <v>1.3530481076123999</v>
       </c>
       <c r="G122" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MAX(E122,-$I$2) * D122</f>
+        <v>340573963968</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D123" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E123" s="12">
-        <v>-4307091486</v>
+        <v>-2511204938</v>
       </c>
       <c r="F123" s="11">
-        <f t="shared" si="6"/>
-        <v>-0.1026684820509652</v>
+        <f>E123/$I$2</f>
+        <v>-5.9859791681088098E-2</v>
       </c>
       <c r="G123" s="12">
-        <f t="shared" si="7"/>
-        <v>-51685097832</v>
+        <f>MAX(E123,-$I$2) * D123</f>
+        <v>-10044819752</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D124" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E124" s="12">
-        <v>5921101380</v>
+        <v>-11915842848</v>
       </c>
       <c r="F124" s="11">
-        <f t="shared" si="6"/>
-        <v>0.14114176416508914</v>
+        <f>E124/$I$2</f>
+        <v>-0.28403889296026208</v>
       </c>
       <c r="G124" s="12">
-        <f t="shared" si="7"/>
-        <v>23684405520</v>
+        <f>MAX(E124,-$I$2) * D124</f>
+        <v>-142990114176</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D125" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E125" s="12">
-        <v>-1615102650</v>
+        <v>-7982373932</v>
       </c>
       <c r="F125" s="11">
-        <f t="shared" si="6"/>
-        <v>-3.8499330225740959E-2</v>
+        <f>E125/$I$2</f>
+        <v>-0.19027648180344098</v>
       </c>
       <c r="G125" s="12">
-        <f t="shared" si="7"/>
-        <v>-19381231800</v>
+        <f>MAX(E125,-$I$2) * D125</f>
+        <v>-31929495728</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D126" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E126" s="12">
-        <v>8447998730</v>
+        <v>-17662141742</v>
       </c>
       <c r="F126" s="11">
-        <f t="shared" si="6"/>
-        <v>0.2013756171181505</v>
+        <f>E126/$I$2</f>
+        <v>-0.42101387637442217</v>
       </c>
       <c r="G126" s="12">
-        <f t="shared" si="7"/>
-        <v>33791994920</v>
+        <f>MAX(E126,-$I$2) * D126</f>
+        <v>-211945700904</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D127" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E127" s="12">
-        <v>1040333114</v>
+        <v>-13551087590</v>
       </c>
       <c r="F127" s="11">
-        <f t="shared" si="6"/>
-        <v>2.4798503117222558E-2</v>
+        <f>E127/$I$2</f>
+        <v>-0.32301835183376748</v>
       </c>
       <c r="G127" s="12">
-        <f t="shared" si="7"/>
-        <v>12483997368</v>
+        <f>MAX(E127,-$I$2) * D127</f>
+        <v>-54204350360</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D128" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E128" s="12">
-        <v>10946345994</v>
+        <v>-23513236916</v>
       </c>
       <c r="F128" s="11">
-        <f t="shared" si="6"/>
-        <v>0.2609289194022576</v>
+        <f>E128/$I$2</f>
+        <v>-0.56048689704345844</v>
       </c>
       <c r="G128" s="12">
-        <f t="shared" si="7"/>
-        <v>43785383976</v>
+        <f>MAX(E128,-$I$2) * D128</f>
+        <v>-282158842992</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D129" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E129" s="12">
-        <v>3874944936</v>
+        <v>-19366227574</v>
       </c>
       <c r="F129" s="11">
-        <f t="shared" si="6"/>
-        <v>9.2367370394461717E-2</v>
+        <f>E129/$I$2</f>
+        <v>-0.46163430578129272</v>
       </c>
       <c r="G129" s="12">
-        <f t="shared" si="7"/>
-        <v>46499339232</v>
+        <f>MAX(E129,-$I$2) * D129</f>
+        <v>-77464910296</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D130" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E130" s="12">
-        <v>13625524342</v>
+        <v>-29651288772</v>
       </c>
       <c r="F130" s="11">
-        <f t="shared" ref="F130:F161" si="8">E130/$I$2</f>
-        <v>0.32479270660693288</v>
+        <f>E130/$I$2</f>
+        <v>-0.70680012694675043</v>
       </c>
       <c r="G130" s="12">
-        <f t="shared" ref="G130:G161" si="9">MAX(E130,-$I$2) * D130</f>
-        <v>54502097368</v>
+        <f>MAX(E130,-$I$2) * D130</f>
+        <v>-355815465264</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D131" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E131" s="12">
-        <v>6578794496</v>
+        <v>-25065055352</v>
       </c>
       <c r="F131" s="11">
-        <f t="shared" si="8"/>
-        <v>0.15681924724028595</v>
+        <f>E131/$I$2</f>
+        <v>-0.59747771643067005</v>
       </c>
       <c r="G131" s="12">
-        <f t="shared" si="9"/>
-        <v>78945533952</v>
+        <f>MAX(E131,-$I$2) * D131</f>
+        <v>-100260221408</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D132" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E132" s="12">
-        <v>16187294816</v>
+        <v>-35684186716</v>
       </c>
       <c r="F132" s="11">
-        <f t="shared" si="8"/>
-        <v>0.38585783298826776</v>
+        <f>E132/$I$2</f>
+        <v>-0.85060679469276002</v>
       </c>
       <c r="G132" s="12">
-        <f t="shared" si="9"/>
-        <v>64749179264</v>
+        <f>MAX(E132,-$I$2) * D132</f>
+        <v>-428210240592</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D133" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E133" s="12">
-        <v>9435360972</v>
+        <v>-26807844022</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="8"/>
-        <v>0.22491144934973401</v>
+        <f>E133/$I$2</f>
+        <v>-0.63902070846279246</v>
       </c>
       <c r="G133" s="12">
-        <f t="shared" si="9"/>
-        <v>113224331664</v>
+        <f>MAX(E133,-$I$2) * D133</f>
+        <v>-107231376088</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D134" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E134" s="12">
-        <v>18924544432</v>
+        <v>-37588589550</v>
       </c>
       <c r="F134" s="11">
-        <f t="shared" si="8"/>
-        <v>0.45110586962337984</v>
+        <f>E134/$I$2</f>
+        <v>-0.89600219639617684</v>
       </c>
       <c r="G134" s="12">
-        <f t="shared" si="9"/>
-        <v>75698177728</v>
+        <f>MAX(E134,-$I$2) * D134</f>
+        <v>-451063074600</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D135" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E135" s="12">
-        <v>0</v>
+        <v>45880979504</v>
       </c>
       <c r="F135" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E135/$I$2</f>
+        <v>1.0936685547540577</v>
       </c>
       <c r="G135" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E135,-$I$2) * D135</f>
+        <v>275285877024</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>10</v>
@@ -4406,23 +4406,23 @@
         <v>4</v>
       </c>
       <c r="E136" s="12">
-        <v>0</v>
+        <v>-9525995278</v>
       </c>
       <c r="F136" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E136/$I$2</f>
+        <v>-0.22707190650487202</v>
       </c>
       <c r="G136" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E136,-$I$2) * D136</f>
+        <v>-38103981112</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>58</v>
@@ -4431,23 +4431,23 @@
         <v>12</v>
       </c>
       <c r="E137" s="12">
-        <v>0</v>
+        <v>-19202279754</v>
       </c>
       <c r="F137" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E137/$I$2</f>
+        <v>-0.45772626856646281</v>
       </c>
       <c r="G137" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E137,-$I$2) * D137</f>
+        <v>-230427357048</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>10</v>
@@ -4456,23 +4456,23 @@
         <v>4</v>
       </c>
       <c r="E138" s="12">
-        <v>0</v>
+        <v>-15018172112</v>
       </c>
       <c r="F138" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E138/$I$2</f>
+        <v>-0.35798936217886923</v>
       </c>
       <c r="G138" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E138,-$I$2) * D138</f>
+        <v>-60072688448</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>58</v>
@@ -4481,23 +4481,23 @@
         <v>12</v>
       </c>
       <c r="E139" s="12">
-        <v>0</v>
+        <v>-24981289594</v>
       </c>
       <c r="F139" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E139/$I$2</f>
+        <v>-0.59548098540007488</v>
       </c>
       <c r="G139" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E139,-$I$2) * D139</f>
+        <v>-299775475128</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>10</v>
@@ -4506,23 +4506,23 @@
         <v>4</v>
       </c>
       <c r="E140" s="12">
-        <v>0</v>
+        <v>-20759804624</v>
       </c>
       <c r="F140" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E140/$I$2</f>
+        <v>-0.49485311267444215</v>
       </c>
       <c r="G140" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E140,-$I$2) * D140</f>
+        <v>-83039218496</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>58</v>
@@ -4531,23 +4531,23 @@
         <v>12</v>
       </c>
       <c r="E141" s="12">
-        <v>0</v>
+        <v>-31067602650</v>
       </c>
       <c r="F141" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E141/$I$2</f>
+        <v>-0.74056091341590879</v>
       </c>
       <c r="G141" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E141,-$I$2) * D141</f>
+        <v>-372811231800</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>10</v>
@@ -4556,23 +4556,23 @@
         <v>4</v>
       </c>
       <c r="E142" s="12">
-        <v>0</v>
+        <v>-26474790696</v>
       </c>
       <c r="F142" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E142/$I$2</f>
+        <v>-0.63108168986205193</v>
       </c>
       <c r="G142" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E142,-$I$2) * D142</f>
+        <v>-105899162784</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>58</v>
@@ -4581,23 +4581,23 @@
         <v>12</v>
       </c>
       <c r="E143" s="12">
-        <v>0</v>
+        <v>-37143812134</v>
       </c>
       <c r="F143" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E143/$I$2</f>
+        <v>-0.88540000178301359</v>
       </c>
       <c r="G143" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E143,-$I$2) * D143</f>
+        <v>-445725745608</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>10</v>
@@ -4606,73 +4606,73 @@
         <v>4</v>
       </c>
       <c r="E144" s="12">
-        <v>0</v>
+        <v>-32221901478</v>
       </c>
       <c r="F144" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E144/$I$2</f>
+        <v>-0.76807602631499161</v>
       </c>
       <c r="G144" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E144,-$I$2) * D144</f>
+        <v>-128887605912</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D145" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E145" s="12">
-        <v>0</v>
+        <v>-43264561724</v>
       </c>
       <c r="F145" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E145/$I$2</f>
+        <v>-1.0313007961965936</v>
       </c>
       <c r="G145" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E145,-$I$2) * D145</f>
+        <v>-503417376000</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D146" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E146" s="12">
-        <v>7734719874</v>
+        <v>35132859188</v>
       </c>
       <c r="F146" s="11">
-        <f t="shared" si="8"/>
-        <v>0.18437313234098618</v>
+        <f>E146/$I$2</f>
+        <v>0.83746475659195363</v>
       </c>
       <c r="G146" s="12">
-        <f t="shared" si="9"/>
-        <v>92816638488</v>
+        <f>MAX(E146,-$I$2) * D146</f>
+        <v>210797155128</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>10</v>
@@ -4681,23 +4681,23 @@
         <v>4</v>
       </c>
       <c r="E147" s="12">
-        <v>17830290924</v>
+        <v>-15781759940</v>
       </c>
       <c r="F147" s="11">
-        <f t="shared" si="8"/>
-        <v>0.42502206178914254</v>
+        <f>E147/$I$2</f>
+        <v>-0.37619106591982238</v>
       </c>
       <c r="G147" s="12">
-        <f t="shared" si="9"/>
-        <v>71321163696</v>
+        <f>MAX(E147,-$I$2) * D147</f>
+        <v>-63127039760</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>58</v>
@@ -4706,23 +4706,23 @@
         <v>12</v>
       </c>
       <c r="E148" s="12">
-        <v>10673994932</v>
+        <v>-25771532394</v>
       </c>
       <c r="F148" s="11">
-        <f t="shared" si="8"/>
-        <v>0.25443686549270006</v>
+        <f>E148/$I$2</f>
+        <v>-0.61431806582695314</v>
       </c>
       <c r="G148" s="12">
-        <f t="shared" si="9"/>
-        <v>128087939184</v>
+        <f>MAX(E148,-$I$2) * D148</f>
+        <v>-309258388728</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>10</v>
@@ -4731,23 +4731,23 @@
         <v>4</v>
       </c>
       <c r="E149" s="12">
-        <v>20582136608</v>
+        <v>-21382964130</v>
       </c>
       <c r="F149" s="11">
-        <f t="shared" si="8"/>
-        <v>0.4906180260571697</v>
+        <f>E149/$I$2</f>
+        <v>-0.50970741534356578</v>
       </c>
       <c r="G149" s="12">
-        <f t="shared" si="9"/>
-        <v>82328546432</v>
+        <f>MAX(E149,-$I$2) * D149</f>
+        <v>-85531856520</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>58</v>
@@ -4756,23 +4756,23 @@
         <v>12</v>
       </c>
       <c r="E150" s="12">
-        <v>13493344510</v>
+        <v>-31719317564</v>
       </c>
       <c r="F150" s="11">
-        <f t="shared" si="8"/>
-        <v>0.32164192544676884</v>
+        <f>E150/$I$2</f>
+        <v>-0.75609589361492358</v>
       </c>
       <c r="G150" s="12">
-        <f t="shared" si="9"/>
-        <v>161920134120</v>
+        <f>MAX(E150,-$I$2) * D150</f>
+        <v>-380631810768</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>10</v>
@@ -4781,23 +4781,23 @@
         <v>4</v>
       </c>
       <c r="E151" s="12">
-        <v>23222382496</v>
+        <v>-27049301358</v>
       </c>
       <c r="F151" s="11">
-        <f t="shared" si="8"/>
-        <v>0.55355377711873022</v>
+        <f>E151/$I$2</f>
+        <v>-0.64477634617045876</v>
       </c>
       <c r="G151" s="12">
-        <f t="shared" si="9"/>
-        <v>92889529984</v>
+        <f>MAX(E151,-$I$2) * D151</f>
+        <v>-108197205432</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>58</v>
@@ -4806,23 +4806,23 @@
         <v>12</v>
       </c>
       <c r="E152" s="12">
-        <v>16482434276</v>
+        <v>-37740883376</v>
       </c>
       <c r="F152" s="11">
-        <f t="shared" si="8"/>
-        <v>0.39289309575202269</v>
+        <f>E152/$I$2</f>
+        <v>-0.89963243642984625</v>
       </c>
       <c r="G152" s="12">
-        <f t="shared" si="9"/>
-        <v>197789211312</v>
+        <f>MAX(E152,-$I$2) * D152</f>
+        <v>-452890600512</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>10</v>
@@ -4831,23 +4831,23 @@
         <v>4</v>
       </c>
       <c r="E153" s="12">
-        <v>26042074758</v>
+        <v>-32843005494</v>
       </c>
       <c r="F153" s="11">
-        <f t="shared" si="8"/>
-        <v>0.62076700565854126</v>
+        <f>E153/$I$2</f>
+        <v>-0.78288133210562838</v>
       </c>
       <c r="G153" s="12">
-        <f t="shared" si="9"/>
-        <v>104168299032</v>
+        <f>MAX(E153,-$I$2) * D153</f>
+        <v>-131372021976</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>58</v>
@@ -4856,223 +4856,223 @@
         <v>12</v>
       </c>
       <c r="E154" s="12">
-        <v>15552204674</v>
+        <v>-43911556550</v>
       </c>
       <c r="F154" s="11">
-        <f t="shared" si="8"/>
-        <v>0.370719138800644</v>
+        <f>E154/$I$2</f>
+        <v>-1.0467232632828312</v>
       </c>
       <c r="G154" s="12">
-        <f t="shared" si="9"/>
-        <v>186626456088</v>
+        <f>MAX(E154,-$I$2) * D154</f>
+        <v>-503417376000</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D155" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E155" s="12">
-        <v>25163334890</v>
+        <v>24728562420</v>
       </c>
       <c r="F155" s="11">
-        <f t="shared" si="8"/>
-        <v>0.59982041358858462</v>
+        <f>E155/$I$2</f>
+        <v>0.58945670766835034</v>
       </c>
       <c r="G155" s="12">
-        <f t="shared" si="9"/>
-        <v>100653339560</v>
+        <f>MAX(E155,-$I$2) * D155</f>
+        <v>148371374520</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D156" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E156" s="12">
-        <v>19163347960</v>
+        <v>-20564541776</v>
       </c>
       <c r="F156" s="11">
-        <f t="shared" si="8"/>
-        <v>0.45679824829884297</v>
+        <f>E156/$I$2</f>
+        <v>-0.49019861664846465</v>
       </c>
       <c r="G156" s="12">
-        <f t="shared" si="9"/>
-        <v>229960175520</v>
+        <f>MAX(E156,-$I$2) * D156</f>
+        <v>-82258167104</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D157" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E157" s="12">
-        <v>28649104456</v>
+        <v>-30839614240</v>
       </c>
       <c r="F157" s="11">
-        <f t="shared" si="8"/>
-        <v>0.6829109797592684</v>
+        <f>E157/$I$2</f>
+        <v>-0.73512633556772577</v>
       </c>
       <c r="G157" s="12">
-        <f t="shared" si="9"/>
-        <v>114596417824</v>
+        <f>MAX(E157,-$I$2) * D157</f>
+        <v>-370075370880</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D158" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E158" s="12">
-        <v>0</v>
+        <v>-26061513252</v>
       </c>
       <c r="F158" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E158/$I$2</f>
+        <v>-0.62123036258486242</v>
       </c>
       <c r="G158" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E158,-$I$2) * D158</f>
+        <v>-104246053008</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D159" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E159" s="12">
-        <v>0</v>
+        <v>-36684678636</v>
       </c>
       <c r="F159" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E159/$I$2</f>
+        <v>-0.87445560010228962</v>
       </c>
       <c r="G159" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E159,-$I$2) * D159</f>
+        <v>-440216143632</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D160" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E160" s="12">
-        <v>0</v>
+        <v>-31798376854</v>
       </c>
       <c r="F160" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E160/$I$2</f>
+        <v>-0.75798043619376376</v>
       </c>
       <c r="G160" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E160,-$I$2) * D160</f>
+        <v>-127193507416</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D161" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E161" s="12">
-        <v>0</v>
+        <v>-42789931346</v>
       </c>
       <c r="F161" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>E161/$I$2</f>
+        <v>-1.0199869941557203</v>
       </c>
       <c r="G161" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(E161,-$I$2) * D161</f>
+        <v>-503417376000</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D162" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E162" s="12">
-        <v>0</v>
+        <v>13520479652</v>
       </c>
       <c r="F162" s="11">
-        <f t="shared" ref="F162:F170" si="10">E162/$I$2</f>
-        <v>0</v>
+        <f>E162/$I$2</f>
+        <v>0.32228874798314472</v>
       </c>
       <c r="G162" s="12">
-        <f t="shared" ref="G162:G170" si="11">MAX(E162,-$I$2) * D162</f>
-        <v>0</v>
+        <f>MAX(E162,-$I$2) * D162</f>
+        <v>81122877912</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>10</v>
@@ -5081,23 +5081,23 @@
         <v>4</v>
       </c>
       <c r="E163" s="12">
-        <v>0</v>
+        <v>-29074217016</v>
       </c>
       <c r="F163" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>E163/$I$2</f>
+        <v>-0.69304442163712676</v>
       </c>
       <c r="G163" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>MAX(E163,-$I$2) * D163</f>
+        <v>-116296868064</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>58</v>
@@ -5106,23 +5106,23 @@
         <v>12</v>
       </c>
       <c r="E164" s="12">
-        <v>0</v>
+        <v>-39855315910</v>
       </c>
       <c r="F164" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>E164/$I$2</f>
+        <v>-0.95003433278393634</v>
       </c>
       <c r="G164" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>MAX(E164,-$I$2) * D164</f>
+        <v>-478263790920</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>10</v>
@@ -5131,23 +5131,23 @@
         <v>4</v>
       </c>
       <c r="E165" s="12">
-        <v>0</v>
+        <v>-34652241464</v>
       </c>
       <c r="F165" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>E165/$I$2</f>
+        <v>-0.8260082337086434</v>
       </c>
       <c r="G165" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>MAX(E165,-$I$2) * D165</f>
+        <v>-138608965856</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>58</v>
@@ -5156,98 +5156,98 @@
         <v>12</v>
       </c>
       <c r="E166" s="12">
-        <v>0</v>
+        <v>-45794385890</v>
       </c>
       <c r="F166" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>E166/$I$2</f>
+        <v>-1.0916044158952511</v>
       </c>
       <c r="G166" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>MAX(E166,-$I$2) * D166</f>
+        <v>-503417376000</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D167" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E167" s="12">
-        <v>0</v>
+        <v>3296727772</v>
       </c>
       <c r="F167" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>E167/$I$2</f>
+        <v>7.8584361903312611E-2</v>
       </c>
       <c r="G167" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>MAX(E167,-$I$2) * D167</f>
+        <v>19780366632</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D168" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E168" s="12">
-        <v>0</v>
+        <v>-37210305246</v>
       </c>
       <c r="F168" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>E168/$I$2</f>
+        <v>-0.88698500337819086</v>
       </c>
       <c r="G168" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>MAX(E168,-$I$2) * D168</f>
+        <v>-148841220984</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D169" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E169" s="12">
-        <v>0</v>
+        <v>-48492792304</v>
       </c>
       <c r="F169" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>E169/$I$2</f>
+        <v>-1.1559265440372881</v>
       </c>
       <c r="G169" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>MAX(E169,-$I$2) * D169</f>
+        <v>-503417376000</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
-        <v>0</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="B170" s="8">
+        <v>22</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>6</v>
@@ -5256,25 +5256,25 @@
         <v>6</v>
       </c>
       <c r="E170" s="12">
-        <v>0</v>
+        <v>-5627254224</v>
       </c>
       <c r="F170" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>E170/$I$2</f>
+        <v>-0.13413730615448602</v>
       </c>
       <c r="G170" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>MAX(E170,-$I$2) * D170</f>
+        <v>-33763525344</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G170" xr:uid="{5F3F2A37-638D-40C7-9927-D8667CBDC363}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G170">
-      <sortCondition descending="1" ref="A1:A170"/>
+      <sortCondition ref="A1:A170"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5285,7 +5285,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BF170473-4303-4D87-B223-3AE77D263219}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BF170473-4303-4D87-B223-3AE77D263219}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>